--- a/outputs-HGR-r202-archive/g__Enterococcus.xlsx
+++ b/outputs-HGR-r202-archive/g__Enterococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,18 +459,3078 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT1029.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2887.769332560056</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1037.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-4555.504332034665</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1047.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-4555.504332034665</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1052.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2352.049369929384</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1055.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2997.122795306028</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1062.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1954.282367551824</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1077.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2407.325833207352</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1088.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2743.964700084662</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1103.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2364.683541926637</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1160.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2349.809553344296</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1169.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2395.552094186371</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1171.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2193.598919561117</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1173.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2454.098786770797</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1177.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-2129.248376303488</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1196.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2111.856623313945</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1197.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2044.453773329006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1228.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2044.453773329006</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1236.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2921.624905007589</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1244.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-2479.568387267322</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1255.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-2479.568387267322</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1266.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2590.332322633261</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1318.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2996.726562903858</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1328.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2129.248376303488</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1362.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-3462.470127240519</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1368.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-2757.773639640663</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1396.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-2430.916351069365</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1477.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1894.186378244807</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1498.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-2498.381868692022</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1511.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1983.157859141453</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1522.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-3455.330412792343</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1565.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1983.157859141453</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT17314.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-2389.075730444165</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT17776.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-2868.645030583395</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1871.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-2585.038334990675</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1880.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-2204.146471322643</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1885.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-2354.567455064027</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1887.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-2841.68337139057</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1888.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-1983.218781346271</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1892.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-2354.567455064027</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1895.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2754.114390853174</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1898.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-3286.564325690634</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1900.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-2440.248620095559</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1904.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-1958.888074731394</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1906.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-2147.27247637322</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1908.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-2789.558014764153</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1911.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-2354.567455064027</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1914.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-2334.862948720069</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1946.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-2677.130495800371</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1959.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-2440.366170251591</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3231.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-2617.715021799674</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3233.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-3151.337346878991</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3477.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-2868.519982254275</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3479.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-2487.111820896916</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3561.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-2413.940629717825</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43425.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-2844.758560465552</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43462.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-2704.281574696717</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43573.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-2783.2672493106</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43577.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-2880.86646900646</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43620.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-2695.315466964609</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43751.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-2491.31561918416</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43943.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-3102.430291928438</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44539.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-3033.318004126789</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44544.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-2699.039150824925</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44617.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-2262.880265479997</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46437.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-2567.023144303571</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46868.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-2625.902966076576</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48498.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-2649.323698632736</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48566.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-3153.882680186267</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48585.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-2888.284572340345</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48612.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-2806.185760952516</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48754.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-3061.55257633729</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48804.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-2905.553170067209</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT48834.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-2435.132681560359</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>s__Enterococcus faecalis</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B74" t="n">
+        <v>-2435.132681560329</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48968.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-3075.853941316068</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48971.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-2884.226195573761</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48976.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-4172.014230643917</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49004.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-2628.535859406742</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49015.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-2574.696313537564</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49070.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-2861.274587195932</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49075.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-2380.89792800177</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49083.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-2455.344811177361</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49101.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-2645.214556691174</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49170.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-3317.985625572039</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49236.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-3100.257820917996</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49289.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-2963.858366881981</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49302.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-3143.114637346128</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49315.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-2342.753910712123</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49329.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-2342.753910712123</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49359.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-3237.841820726179</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49403.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-2694.403714129689</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49456.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-3460.545595892214</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49469.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-2445.710464171646</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49529.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-2922.466988490014</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49535.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-3086.279389362239</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49539.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-2342.753910712123</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49541.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-2466.158479626947</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49609.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-2672.103193317635</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6222.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-3348.626482256152</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6229.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-2505.016260473563</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6233.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-2731.050319880547</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6238.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-2171.602462615536</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6241.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-2396.71616773128</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6274.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-2505.016260473563</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6291.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-2903.138884102364</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69501.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-3011.801676899249</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7062.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-2466.934584551813</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7090.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-2618.334004509475</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7102.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-2376.040157573727</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7118.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-2553.881203483227</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7213.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-2568.881410305465</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7216.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-1958.151656500349</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7222.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-2617.326182626631</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7253.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-2372.117706941416</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7278.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-1911.524055392062</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91192.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-3405.91928065366</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91196.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-2963.282660060606</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91262.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-3114.342029712578</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91264.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-2616.147869981733</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91267.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-3114.342029712578</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91272.fa</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-2370.050965566497</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91297.fa</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-2308.581602920097</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91320.fa</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-2725.616581557657</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91330.fa</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-2136.602211221948</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91385.fa</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-2336.927111039693</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91468.fa</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-2448.921000798577</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91486.fa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-2448.921000798577</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91490.fa</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-2447.037292434239</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91491.fa</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-2745.058273605307</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91492.fa</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-3126.996026858705</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91496.fa</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-2749.288512860455</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91520.fa</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-3179.610903044126</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91536.fa</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-2800.80967213787</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91546.fa</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-3096.28291626108</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91568.fa</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-2591.443980217375</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91712.fa</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-2462.043857411069</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91717.fa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-2699.308565673092</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91779.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-3093.835146406129</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91815.fa</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-2030.572494465978</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91818.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-2030.572494465978</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91821.fa</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-3094.476193409459</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91823.fa</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-3262.907551872433</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91860.fa</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-3527.848677744943</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91882.fa</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-2905.617924771137</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91886.fa</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-2466.722107481984</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91911.fa</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-3759.348636363092</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91912.fa</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-2464.133086068587</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91923.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-2608.057120656908</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91926.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-2874.062982826115</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91932.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-2860.838416947078</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91941.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-2538.968275510591</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91954.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-2416.738776705394</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92006.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-1901.883389787299</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92066.fa</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-2821.005648788579</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92111.fa</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-2690.915601269823</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>s__Enterococcus faecalis(reject)</t>
         </is>
